--- a/src/test/resources/testdata/EasyQuoteL5.xlsx
+++ b/src/test/resources/testdata/EasyQuoteL5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="111">
   <si>
     <t>Source</t>
   </si>
@@ -177,12 +177,184 @@
   </si>
   <si>
     <t>0.25</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>225.0</t>
+  </si>
+  <si>
+    <t>11.25</t>
+  </si>
+  <si>
+    <t>236.25</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>525.0</t>
+  </si>
+  <si>
+    <t>No verbatim</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>15.75</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>51.45</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>58.8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>151.2</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>1072.0</t>
+  </si>
+  <si>
+    <t>53.6</t>
+  </si>
+  <si>
+    <t>1125.6</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>1040.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>1092.0</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>864.0</t>
+  </si>
+  <si>
+    <t>43.2</t>
+  </si>
+  <si>
+    <t>907.2</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>9600.0</t>
+  </si>
+  <si>
+    <t>480.0</t>
+  </si>
+  <si>
+    <t>10080.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -197,12 +369,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -232,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,6 +444,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -627,19 +812,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.5703125" style="10" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="10" collapsed="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="5" style="10" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="11.7109375" collapsed="true"/>
+    <col min="7" max="7" style="10" width="11.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="14" width="14.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30">
@@ -685,7 +870,7 @@
       <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="15" t="s">
         <v>46</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -714,11 +899,11 @@
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9">
-        <v>180</v>
-      </c>
-      <c r="E2" s="11">
-        <v>1</v>
+      <c r="D2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>53</v>
@@ -726,19 +911,45 @@
       <c r="G2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -750,11 +961,11 @@
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9">
-        <v>250</v>
-      </c>
-      <c r="E3" s="12">
-        <v>2</v>
+      <c r="D3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>53</v>
@@ -762,19 +973,45 @@
       <c r="G3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="28.5" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -786,11 +1023,11 @@
       <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12">
-        <v>5</v>
+      <c r="D4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>53</v>
@@ -798,19 +1035,45 @@
       <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -822,11 +1085,11 @@
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9">
-        <v>4</v>
-      </c>
-      <c r="E5" s="12">
-        <v>5</v>
+      <c r="D5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>53</v>
@@ -834,19 +1097,45 @@
       <c r="G5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="28.5" customHeight="1">
       <c r="A6" s="7" t="s">
@@ -858,11 +1147,11 @@
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9">
-        <v>100</v>
-      </c>
-      <c r="E6" s="12">
-        <v>5</v>
+      <c r="D6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>53</v>
@@ -870,19 +1159,45 @@
       <c r="G6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="28.5" customHeight="1">
       <c r="A7" s="7" t="s">
@@ -894,11 +1209,11 @@
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9">
-        <v>6</v>
-      </c>
-      <c r="E7" s="12">
-        <v>5</v>
+      <c r="D7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>53</v>
@@ -906,19 +1221,45 @@
       <c r="G7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="28.5" customHeight="1">
       <c r="A8" s="7" t="s">
@@ -930,11 +1271,11 @@
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9">
-        <v>7</v>
-      </c>
-      <c r="E8" s="12">
-        <v>7</v>
+      <c r="D8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>53</v>
@@ -942,19 +1283,45 @@
       <c r="G8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="28.5" customHeight="1">
       <c r="A9" s="7" t="s">
@@ -966,11 +1333,11 @@
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="12">
-        <v>7</v>
+      <c r="D9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>53</v>
@@ -978,19 +1345,45 @@
       <c r="G9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="28.5" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -1002,11 +1395,11 @@
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9">
-        <v>9</v>
-      </c>
-      <c r="E10" s="12">
-        <v>16</v>
+      <c r="D10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>53</v>
@@ -1014,19 +1407,45 @@
       <c r="G10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="28.5" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -1038,11 +1457,11 @@
       <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9">
-        <v>67</v>
-      </c>
-      <c r="E11" s="12">
-        <v>16</v>
+      <c r="D11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>53</v>
@@ -1050,19 +1469,45 @@
       <c r="G11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="28.5" customHeight="1">
       <c r="A12" s="7" t="s">
@@ -1074,11 +1519,11 @@
       <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="9">
-        <v>65</v>
-      </c>
-      <c r="E12" s="12">
-        <v>16</v>
+      <c r="D12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>53</v>
@@ -1086,19 +1531,45 @@
       <c r="G12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="28.5" customHeight="1">
       <c r="A13" s="7" t="s">
@@ -1110,11 +1581,11 @@
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="9">
-        <v>54</v>
-      </c>
-      <c r="E13" s="12">
-        <v>16</v>
+      <c r="D13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>53</v>
@@ -1122,19 +1593,45 @@
       <c r="G13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="28.5" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1146,11 +1643,11 @@
       <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12">
-        <v>16</v>
+      <c r="D14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>53</v>
@@ -1158,19 +1655,45 @@
       <c r="G14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="28.5" customHeight="1">
       <c r="A15" s="7" t="s">
@@ -1182,11 +1705,11 @@
       <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="9">
-        <v>600</v>
-      </c>
-      <c r="E15" s="12">
-        <v>16</v>
+      <c r="D15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>53</v>
@@ -1194,19 +1717,45 @@
       <c r="G15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1229,11 +1778,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="11.7109375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="10" width="11.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45">
